--- a/doc/dokumentasi pesan.xlsx
+++ b/doc/dokumentasi pesan.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
   <si>
     <t>No</t>
   </si>
@@ -78,7 +78,13 @@
     <t>ListTaskUpdated</t>
   </si>
   <si>
-    <t>code=22,message=&lt;&gt;</t>
+    <t>UpdateLog</t>
+  </si>
+  <si>
+    <t>code=22,message=&lt;List of task&gt;</t>
+  </si>
+  <si>
+    <t>code=50,message=&lt;list of log&gt;</t>
   </si>
 </sst>
 </file>
@@ -417,10 +423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -453,16 +459,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
         <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -470,13 +476,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
@@ -487,16 +493,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C4">
-        <v>127</v>
+        <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -504,16 +510,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C5">
-        <v>128</v>
+        <v>50</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E5" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -521,16 +527,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C6">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -538,16 +544,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>127</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -555,19 +561,39 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C8">
-        <v>22</v>
+        <v>128</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E8" t="s">
         <v>7</v>
       </c>
     </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9">
+        <v>22</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState ref="B2:E9">
+    <sortCondition ref="E9"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
